--- a/data/pca/factorExposure/factorExposure_2017-08-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02376510196285123</v>
+        <v>-0.009841254034406364</v>
       </c>
       <c r="C2">
-        <v>0.0001799792364492878</v>
+        <v>-0.0434114755763346</v>
       </c>
       <c r="D2">
-        <v>-0.01732094839241647</v>
+        <v>0.02989206914285876</v>
       </c>
       <c r="E2">
-        <v>0.01239164157233038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03347182425966694</v>
+      </c>
+      <c r="F2">
+        <v>-0.01174463310398037</v>
+      </c>
+      <c r="G2">
+        <v>-0.07248415177772968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01593199266735391</v>
+        <v>-0.05923182988333275</v>
       </c>
       <c r="C3">
-        <v>-0.0513578935512702</v>
+        <v>-0.07034163404061178</v>
       </c>
       <c r="D3">
-        <v>0.0006656013309139097</v>
+        <v>0.01491709059095071</v>
       </c>
       <c r="E3">
-        <v>-0.0019793509572134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1021569448855998</v>
+      </c>
+      <c r="F3">
+        <v>-0.03545664472395343</v>
+      </c>
+      <c r="G3">
+        <v>-0.1597066729470613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02354898541938151</v>
+        <v>-0.06064579344936373</v>
       </c>
       <c r="C4">
-        <v>-0.01920498392993982</v>
+        <v>-0.06346720072274878</v>
       </c>
       <c r="D4">
-        <v>-0.06396324655551762</v>
+        <v>0.0235270985134334</v>
       </c>
       <c r="E4">
-        <v>-0.01115563092426416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02239708952107608</v>
+      </c>
+      <c r="F4">
+        <v>-0.007435266425390078</v>
+      </c>
+      <c r="G4">
+        <v>-0.07279595141040383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01517468301421201</v>
+        <v>-0.04124345980012165</v>
       </c>
       <c r="C6">
-        <v>-0.009952444525443464</v>
+        <v>-0.051686726718048</v>
       </c>
       <c r="D6">
-        <v>-0.09021548381921876</v>
+        <v>0.0159464625350297</v>
       </c>
       <c r="E6">
-        <v>-0.002884209080185601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02208541354396514</v>
+      </c>
+      <c r="F6">
+        <v>-0.01128843350593295</v>
+      </c>
+      <c r="G6">
+        <v>-0.04920433480568447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01052048562226726</v>
+        <v>-0.01994142193770765</v>
       </c>
       <c r="C7">
-        <v>-0.006063434453443185</v>
+        <v>-0.04025880679386212</v>
       </c>
       <c r="D7">
-        <v>-0.03767876625174697</v>
+        <v>0.01328665952682963</v>
       </c>
       <c r="E7">
-        <v>-0.05966682175501425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005639129871088871</v>
+      </c>
+      <c r="F7">
+        <v>0.00338961526026002</v>
+      </c>
+      <c r="G7">
+        <v>-0.1133384876433198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>6.290483285693029e-05</v>
+        <v>-0.001734187809774845</v>
       </c>
       <c r="C8">
-        <v>-0.0008016684415088718</v>
+        <v>-0.02097881814303924</v>
       </c>
       <c r="D8">
-        <v>-0.001382834631335408</v>
+        <v>0.003739136221531663</v>
       </c>
       <c r="E8">
-        <v>-0.00906177616756906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02331361859442798</v>
+      </c>
+      <c r="F8">
+        <v>-0.0169545188148872</v>
+      </c>
+      <c r="G8">
+        <v>-0.0462822921061872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01629206376042551</v>
+        <v>-0.03603193865682747</v>
       </c>
       <c r="C9">
-        <v>-0.01999785113109672</v>
+        <v>-0.04408963403833932</v>
       </c>
       <c r="D9">
-        <v>-0.0474110777427809</v>
+        <v>0.01599892967721126</v>
       </c>
       <c r="E9">
-        <v>-0.002454280018522864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0151657185734238</v>
+      </c>
+      <c r="F9">
+        <v>-0.01201183006151587</v>
+      </c>
+      <c r="G9">
+        <v>-0.07740636810500062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0202117651114108</v>
+        <v>-0.09047231482256192</v>
       </c>
       <c r="C10">
-        <v>-0.1653615242884793</v>
+        <v>0.1861596862341368</v>
       </c>
       <c r="D10">
-        <v>0.1083046412005954</v>
+        <v>-0.01700918613739854</v>
       </c>
       <c r="E10">
-        <v>0.002757367547037516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01197040742012077</v>
+      </c>
+      <c r="F10">
+        <v>0.01999030512784858</v>
+      </c>
+      <c r="G10">
+        <v>-0.05115166233251518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007199841410449236</v>
+        <v>-0.03542058096355039</v>
       </c>
       <c r="C11">
-        <v>-0.006609614290113011</v>
+        <v>-0.0527985418714063</v>
       </c>
       <c r="D11">
-        <v>-0.03967359954621742</v>
+        <v>0.002448091119066415</v>
       </c>
       <c r="E11">
-        <v>0.006816305429873315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.00896886186919677</v>
+      </c>
+      <c r="F11">
+        <v>-0.02154768229239823</v>
+      </c>
+      <c r="G11">
+        <v>-0.05953248919373884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006296031136961339</v>
+        <v>-0.03714171448177708</v>
       </c>
       <c r="C12">
-        <v>-0.01271615992659372</v>
+        <v>-0.04810953328783368</v>
       </c>
       <c r="D12">
-        <v>-0.0444140052105949</v>
+        <v>0.006239929013827103</v>
       </c>
       <c r="E12">
-        <v>-0.003825804137209302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0006285243343869662</v>
+      </c>
+      <c r="F12">
+        <v>-0.002072279223596918</v>
+      </c>
+      <c r="G12">
+        <v>-0.054797588596852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02271677150779705</v>
+        <v>-0.01836202612407365</v>
       </c>
       <c r="C13">
-        <v>-0.01614078758864318</v>
+        <v>-0.0352032480132201</v>
       </c>
       <c r="D13">
-        <v>-0.007843468767164416</v>
+        <v>0.02555378566946126</v>
       </c>
       <c r="E13">
-        <v>0.0100777521183637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02794170831668295</v>
+      </c>
+      <c r="F13">
+        <v>-0.006971470810189903</v>
+      </c>
+      <c r="G13">
+        <v>-0.08972274831715954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007893198997747453</v>
+        <v>-0.01024374331022485</v>
       </c>
       <c r="C14">
-        <v>-0.01431726780040746</v>
+        <v>-0.02579327680652691</v>
       </c>
       <c r="D14">
-        <v>-0.01194993145750394</v>
+        <v>0.008730639424872653</v>
       </c>
       <c r="E14">
-        <v>-0.009729676026733048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0030306441004702</v>
+      </c>
+      <c r="F14">
+        <v>0.006762130212519343</v>
+      </c>
+      <c r="G14">
+        <v>-0.07768451620791644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001566912210170787</v>
+        <v>-0.03447147733110383</v>
       </c>
       <c r="C16">
-        <v>-0.01252190055735707</v>
+        <v>-0.04747984389772653</v>
       </c>
       <c r="D16">
-        <v>-0.04735498578458522</v>
+        <v>0.001991477260661176</v>
       </c>
       <c r="E16">
-        <v>-0.002680614969288959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.00749761396783752</v>
+      </c>
+      <c r="F16">
+        <v>-0.003086460484152532</v>
+      </c>
+      <c r="G16">
+        <v>-0.06318294481886434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01422377122373741</v>
+        <v>-0.02719626768405582</v>
       </c>
       <c r="C19">
-        <v>-0.02431253390884451</v>
+        <v>-0.04772524395692101</v>
       </c>
       <c r="D19">
-        <v>-0.01644432495777543</v>
+        <v>0.01692584397101311</v>
       </c>
       <c r="E19">
-        <v>-0.006151965754689532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06065254049900329</v>
+      </c>
+      <c r="F19">
+        <v>-0.01877961841746538</v>
+      </c>
+      <c r="G19">
+        <v>-0.1021133796013565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01116621559515947</v>
+        <v>-0.01649642380865644</v>
       </c>
       <c r="C20">
-        <v>-0.009249810785922423</v>
+        <v>-0.0342829894862651</v>
       </c>
       <c r="D20">
-        <v>-0.008900194069012145</v>
+        <v>0.01345968647041778</v>
       </c>
       <c r="E20">
-        <v>0.006685429703720698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02764276926656696</v>
+      </c>
+      <c r="F20">
+        <v>0.004857711172480835</v>
+      </c>
+      <c r="G20">
+        <v>-0.0796774474036072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01503277517471894</v>
+        <v>-0.01636567453304772</v>
       </c>
       <c r="C21">
-        <v>-0.02288963160105045</v>
+        <v>-0.03671231971798188</v>
       </c>
       <c r="D21">
-        <v>-0.02317228858760188</v>
+        <v>0.01727204326825098</v>
       </c>
       <c r="E21">
-        <v>-0.01046325295770745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03739098169521336</v>
+      </c>
+      <c r="F21">
+        <v>0.000380781548083815</v>
+      </c>
+      <c r="G21">
+        <v>-0.1077252701520513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004499165384113154</v>
+        <v>-0.02810913561155836</v>
       </c>
       <c r="C24">
-        <v>-0.0009285467596540763</v>
+        <v>-0.05026277504772329</v>
       </c>
       <c r="D24">
-        <v>-0.04173786510190534</v>
+        <v>0.00743073273892509</v>
       </c>
       <c r="E24">
-        <v>0.001108417901591873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005035935157569347</v>
+      </c>
+      <c r="F24">
+        <v>-0.01493029594048868</v>
+      </c>
+      <c r="G24">
+        <v>-0.06373085877831947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01209927257959404</v>
+        <v>-0.04340658482244417</v>
       </c>
       <c r="C25">
-        <v>-0.01734290317331879</v>
+        <v>-0.05681315650981318</v>
       </c>
       <c r="D25">
-        <v>-0.04452763100191712</v>
+        <v>0.01139423794626885</v>
       </c>
       <c r="E25">
-        <v>0.001284844795485729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.00220204874958649</v>
+      </c>
+      <c r="F25">
+        <v>-0.01002370648401023</v>
+      </c>
+      <c r="G25">
+        <v>-0.0682113753027045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02318902323773</v>
+        <v>-0.01585959970881696</v>
       </c>
       <c r="C26">
-        <v>-0.01129363038779814</v>
+        <v>-0.008062982791274109</v>
       </c>
       <c r="D26">
-        <v>0.007008715290329775</v>
+        <v>0.02330750536756208</v>
       </c>
       <c r="E26">
-        <v>-0.009758079038393255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002938413149033548</v>
+      </c>
+      <c r="F26">
+        <v>0.007441077217620336</v>
+      </c>
+      <c r="G26">
+        <v>-0.06434958395472311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04274194648263756</v>
+        <v>-0.1136432358427509</v>
       </c>
       <c r="C28">
-        <v>-0.2378957007457881</v>
+        <v>0.2368973093936714</v>
       </c>
       <c r="D28">
-        <v>0.1581007235586742</v>
+        <v>-0.007823942474123213</v>
       </c>
       <c r="E28">
-        <v>-0.01912255635102831</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0004396820889496084</v>
+      </c>
+      <c r="F28">
+        <v>0.02010434670500559</v>
+      </c>
+      <c r="G28">
+        <v>-0.06857504079856913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008218529653940146</v>
+        <v>-0.0124407364341811</v>
       </c>
       <c r="C29">
-        <v>-0.01782322251917793</v>
+        <v>-0.02035636940317556</v>
       </c>
       <c r="D29">
-        <v>-0.01085665963536548</v>
+        <v>0.007501044908883349</v>
       </c>
       <c r="E29">
-        <v>-0.004790354831156925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.005756630945344431</v>
+      </c>
+      <c r="F29">
+        <v>0.0164640301100563</v>
+      </c>
+      <c r="G29">
+        <v>-0.06776641300270468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0234909050032723</v>
+        <v>-0.04775971577098552</v>
       </c>
       <c r="C30">
-        <v>-0.0040666827937833</v>
+        <v>-0.06198679692507179</v>
       </c>
       <c r="D30">
-        <v>-0.05469603930819902</v>
+        <v>0.02788571014071952</v>
       </c>
       <c r="E30">
-        <v>0.05051933516426096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04731027565341883</v>
+      </c>
+      <c r="F30">
+        <v>-0.04677189910026024</v>
+      </c>
+      <c r="G30">
+        <v>-0.07141908513640521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009719169313144486</v>
+        <v>-0.05413917562187712</v>
       </c>
       <c r="C31">
-        <v>-0.04241504832127548</v>
+        <v>-0.0337766258737608</v>
       </c>
       <c r="D31">
-        <v>-0.04390119502378156</v>
+        <v>0.00319885350917849</v>
       </c>
       <c r="E31">
-        <v>-0.008667952591023102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.005973690671548792</v>
+      </c>
+      <c r="F31">
+        <v>0.03859132593014579</v>
+      </c>
+      <c r="G31">
+        <v>-0.06443621461612201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006137713052460976</v>
+        <v>-0.0003628982684076781</v>
       </c>
       <c r="C32">
-        <v>-0.01878514149006577</v>
+        <v>-0.02673922349015352</v>
       </c>
       <c r="D32">
-        <v>0.006502563417552836</v>
+        <v>-0.004043009514753885</v>
       </c>
       <c r="E32">
-        <v>-0.05049695999067824</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01527268116824739</v>
+      </c>
+      <c r="F32">
+        <v>-0.04179706246500101</v>
+      </c>
+      <c r="G32">
+        <v>-0.09110379628683217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01384152581681872</v>
+        <v>-0.02978238216583971</v>
       </c>
       <c r="C33">
-        <v>-0.02604926910274258</v>
+        <v>-0.04688347829558188</v>
       </c>
       <c r="D33">
-        <v>-0.01746234747823502</v>
+        <v>0.01483807003838007</v>
       </c>
       <c r="E33">
-        <v>0.02819090477105776</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03188070350579635</v>
+      </c>
+      <c r="F33">
+        <v>-0.01721435134578611</v>
+      </c>
+      <c r="G33">
+        <v>-0.09884019602150551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003989475313605354</v>
+        <v>-0.04081133889207093</v>
       </c>
       <c r="C34">
-        <v>-0.018105786921585</v>
+        <v>-0.06130551254552439</v>
       </c>
       <c r="D34">
-        <v>-0.04896969339471128</v>
+        <v>-0.004269842011698968</v>
       </c>
       <c r="E34">
-        <v>-0.006664964492491276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001187301980682179</v>
+      </c>
+      <c r="F34">
+        <v>-0.02141357764429731</v>
+      </c>
+      <c r="G34">
+        <v>-0.0706584435567585</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01318234190185111</v>
+        <v>-0.01598393923845163</v>
       </c>
       <c r="C36">
-        <v>-0.02176176617394915</v>
+        <v>-0.008498205881515801</v>
       </c>
       <c r="D36">
-        <v>-0.001407938788175558</v>
+        <v>0.01152280628828155</v>
       </c>
       <c r="E36">
-        <v>-0.004093833967736336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0008327848315021531</v>
+      </c>
+      <c r="F36">
+        <v>0.008820785906338368</v>
+      </c>
+      <c r="G36">
+        <v>-0.05800396477189732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003655012053479873</v>
+        <v>-0.033485429153959</v>
       </c>
       <c r="C38">
-        <v>-0.03526681330275553</v>
+        <v>-0.02862041915015216</v>
       </c>
       <c r="D38">
-        <v>-0.03034892273994538</v>
+        <v>-0.007770661884096365</v>
       </c>
       <c r="E38">
-        <v>-0.005768966360234728</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002316392877635815</v>
+      </c>
+      <c r="F38">
+        <v>0.01502055366543371</v>
+      </c>
+      <c r="G38">
+        <v>-0.06544984126576582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004942495366240695</v>
+        <v>-0.03618646220360627</v>
       </c>
       <c r="C39">
-        <v>0.01797821155533998</v>
+        <v>-0.08135034447911912</v>
       </c>
       <c r="D39">
-        <v>-0.08781896229398634</v>
+        <v>0.01217667974748573</v>
       </c>
       <c r="E39">
-        <v>0.01616086068265064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02435038761054356</v>
+      </c>
+      <c r="F39">
+        <v>-0.02811507738287536</v>
+      </c>
+      <c r="G39">
+        <v>-0.0657176650986383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01274591671320068</v>
+        <v>-0.02010070648999174</v>
       </c>
       <c r="C40">
-        <v>-0.02300579162802708</v>
+        <v>-0.03152933744492585</v>
       </c>
       <c r="D40">
-        <v>-0.02320650268515389</v>
+        <v>0.01370898169825887</v>
       </c>
       <c r="E40">
-        <v>-0.002726731975914981</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02294006472418897</v>
+      </c>
+      <c r="F40">
+        <v>-0.01163259377932671</v>
+      </c>
+      <c r="G40">
+        <v>-0.07181919311350507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006362503231093926</v>
+        <v>-0.01709840341120263</v>
       </c>
       <c r="C41">
-        <v>-0.02233012360755256</v>
+        <v>-0.00377712689161392</v>
       </c>
       <c r="D41">
-        <v>0.009501175206647325</v>
+        <v>0.003952438360152765</v>
       </c>
       <c r="E41">
-        <v>-0.00436484094987904</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0003055619423037149</v>
+      </c>
+      <c r="F41">
+        <v>0.01057825799476394</v>
+      </c>
+      <c r="G41">
+        <v>-0.04416138492973782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09356471872056311</v>
+        <v>-0.01251859123911539</v>
       </c>
       <c r="C42">
-        <v>0.006936199423860923</v>
+        <v>-0.03708615635895809</v>
       </c>
       <c r="D42">
-        <v>-0.2460485334061467</v>
+        <v>0.09418641092999561</v>
       </c>
       <c r="E42">
-        <v>0.4105518455890211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03115865348725762</v>
+      </c>
+      <c r="F42">
+        <v>0.03654722342797292</v>
+      </c>
+      <c r="G42">
+        <v>0.174523357164473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007741886730321545</v>
+        <v>-0.03288630464967333</v>
       </c>
       <c r="C43">
-        <v>-0.02589306617554326</v>
+        <v>-0.01436772904927401</v>
       </c>
       <c r="D43">
-        <v>0.01560754966042943</v>
+        <v>0.005365053088887041</v>
       </c>
       <c r="E43">
-        <v>0.001181474132545844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01203866412631426</v>
+      </c>
+      <c r="F43">
+        <v>0.003180387129103227</v>
+      </c>
+      <c r="G43">
+        <v>-0.0669521589982652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003256860117770129</v>
+        <v>-0.01869111288009092</v>
       </c>
       <c r="C44">
-        <v>-0.007100115537986862</v>
+        <v>-0.04822855478956155</v>
       </c>
       <c r="D44">
-        <v>-0.02566589087256656</v>
+        <v>0.00590101413851097</v>
       </c>
       <c r="E44">
-        <v>-0.005164745746691576</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01669704958443789</v>
+      </c>
+      <c r="F44">
+        <v>0.004238520084296677</v>
+      </c>
+      <c r="G44">
+        <v>-0.0817643922484708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01128325825508751</v>
+        <v>-0.009553198027291512</v>
       </c>
       <c r="C46">
-        <v>-0.01621648372558656</v>
+        <v>-0.01642662250693383</v>
       </c>
       <c r="D46">
-        <v>-0.01108352019876513</v>
+        <v>0.01141164103407034</v>
       </c>
       <c r="E46">
-        <v>0.001569766550543438</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.004518352584927682</v>
+      </c>
+      <c r="F46">
+        <v>0.01857299636367986</v>
+      </c>
+      <c r="G46">
+        <v>-0.06692973992216723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004285835015631928</v>
+        <v>-0.07943676362161074</v>
       </c>
       <c r="C47">
-        <v>-0.05452117407000884</v>
+        <v>-0.06355635422328025</v>
       </c>
       <c r="D47">
-        <v>-0.0591504987073195</v>
+        <v>-0.005201831787226911</v>
       </c>
       <c r="E47">
-        <v>-0.005174757732710661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008984060968732182</v>
+      </c>
+      <c r="F47">
+        <v>0.05370331820769265</v>
+      </c>
+      <c r="G47">
+        <v>-0.06106067514874279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004226453879234131</v>
+        <v>-0.02233922950218497</v>
       </c>
       <c r="C48">
-        <v>-0.02780695356623343</v>
+        <v>-0.01040016247759559</v>
       </c>
       <c r="D48">
-        <v>-0.01005983926737852</v>
+        <v>0.0007626227326213295</v>
       </c>
       <c r="E48">
-        <v>-0.003708255818606113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00315205218361266</v>
+      </c>
+      <c r="F48">
+        <v>0.02221579100845109</v>
+      </c>
+      <c r="G48">
+        <v>-0.06541845903302775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006124478510302725</v>
+        <v>-0.07965845784826275</v>
       </c>
       <c r="C50">
-        <v>-0.05441092584136928</v>
+        <v>-0.06503757539540042</v>
       </c>
       <c r="D50">
-        <v>-0.06422800583245609</v>
+        <v>-0.003346469064971666</v>
       </c>
       <c r="E50">
-        <v>-0.03029954658843726</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01239238847173611</v>
+      </c>
+      <c r="F50">
+        <v>0.05833171774229085</v>
+      </c>
+      <c r="G50">
+        <v>-0.07833101307383418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007298678289215647</v>
+        <v>-0.01591249303855685</v>
       </c>
       <c r="C51">
-        <v>-0.0166176441064817</v>
+        <v>-0.03129028241728421</v>
       </c>
       <c r="D51">
-        <v>0.003924359757659135</v>
+        <v>0.009592466118525097</v>
       </c>
       <c r="E51">
-        <v>-0.005637186031351713</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01432220807239665</v>
+      </c>
+      <c r="F51">
+        <v>-0.02357572088574862</v>
+      </c>
+      <c r="G51">
+        <v>-0.09788765205613308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007497104801567612</v>
+        <v>-0.08613464065014709</v>
       </c>
       <c r="C53">
-        <v>-0.06554068650055056</v>
+        <v>-0.07945229641223574</v>
       </c>
       <c r="D53">
-        <v>-0.1205933689185537</v>
+        <v>-0.004553351791481582</v>
       </c>
       <c r="E53">
-        <v>-0.005482753774311709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.032508774540686</v>
+      </c>
+      <c r="F53">
+        <v>0.0597981620663859</v>
+      </c>
+      <c r="G53">
+        <v>-0.04643700313586628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001436766063203132</v>
+        <v>-0.03331327870091311</v>
       </c>
       <c r="C54">
-        <v>-0.03513266588770545</v>
+        <v>-0.01353116304126698</v>
       </c>
       <c r="D54">
-        <v>0.006560826034295551</v>
+        <v>-0.002510044096396809</v>
       </c>
       <c r="E54">
-        <v>-0.008670262883331732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003597867789435256</v>
+      </c>
+      <c r="F54">
+        <v>0.00703284605250501</v>
+      </c>
+      <c r="G54">
+        <v>-0.07255120546686065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003705638864471691</v>
+        <v>-0.07476539266471997</v>
       </c>
       <c r="C55">
-        <v>-0.04495141550739679</v>
+        <v>-0.06734327672143446</v>
       </c>
       <c r="D55">
-        <v>-0.1030654391541511</v>
+        <v>-0.005490582058073025</v>
       </c>
       <c r="E55">
-        <v>0.005332151651182839</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02618943175219606</v>
+      </c>
+      <c r="F55">
+        <v>0.05933178343672638</v>
+      </c>
+      <c r="G55">
+        <v>-0.03114960176997094</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006510758976336208</v>
+        <v>-0.1450340099111519</v>
       </c>
       <c r="C56">
-        <v>-0.09342579123942152</v>
+        <v>-0.1029429911565276</v>
       </c>
       <c r="D56">
-        <v>-0.1560529437758621</v>
+        <v>-0.01307509789854615</v>
       </c>
       <c r="E56">
-        <v>0.005999868824485275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03649365504212946</v>
+      </c>
+      <c r="F56">
+        <v>0.07903377807675775</v>
+      </c>
+      <c r="G56">
+        <v>-0.00749816201033461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02403754387123352</v>
+        <v>-0.008233752170700357</v>
       </c>
       <c r="C57">
-        <v>-0.01501788293976521</v>
+        <v>-0.008657262925227947</v>
       </c>
       <c r="D57">
-        <v>-0.03946070385935482</v>
+        <v>0.02350051683973979</v>
       </c>
       <c r="E57">
-        <v>0.005060002121467502</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02549360077308524</v>
+      </c>
+      <c r="F57">
+        <v>-0.007953025712024969</v>
+      </c>
+      <c r="G57">
+        <v>-0.03173126701174184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01657805489377737</v>
+        <v>-0.07662829422618185</v>
       </c>
       <c r="C58">
-        <v>-0.08855012710698194</v>
+        <v>-0.03270216059772282</v>
       </c>
       <c r="D58">
-        <v>-0.09592561952063991</v>
+        <v>0.02078645563983161</v>
       </c>
       <c r="E58">
-        <v>0.3877438583705382</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9384466201294001</v>
+      </c>
+      <c r="F58">
+        <v>0.236275717402521</v>
+      </c>
+      <c r="G58">
+        <v>0.08792859996787544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03989479267861738</v>
+        <v>-0.154106351852815</v>
       </c>
       <c r="C59">
-        <v>-0.2545694690227325</v>
+        <v>0.2127390164048922</v>
       </c>
       <c r="D59">
-        <v>0.1591268541706353</v>
+        <v>-0.01432009408682413</v>
       </c>
       <c r="E59">
-        <v>-0.01250310389716562</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.008359379815681869</v>
+      </c>
+      <c r="F59">
+        <v>-0.0006262594282574491</v>
+      </c>
+      <c r="G59">
+        <v>-0.03670961472515102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04097514045556593</v>
+        <v>-0.28923393011685</v>
       </c>
       <c r="C60">
-        <v>-0.1628174860615252</v>
+        <v>-0.08932072028508077</v>
       </c>
       <c r="D60">
-        <v>-0.07370819936095617</v>
+        <v>0.0127652396311971</v>
       </c>
       <c r="E60">
-        <v>0.01439102885370847</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.00174590397187755</v>
+      </c>
+      <c r="F60">
+        <v>-0.3520967215362718</v>
+      </c>
+      <c r="G60">
+        <v>0.1254116328979643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003374021786780202</v>
+        <v>-0.03746712014028874</v>
       </c>
       <c r="C61">
-        <v>-0.007475908471009599</v>
+        <v>-0.06512666443282167</v>
       </c>
       <c r="D61">
-        <v>-0.06375312142313666</v>
+        <v>0.005526980433835204</v>
       </c>
       <c r="E61">
-        <v>0.003870628319950991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01197916700835468</v>
+      </c>
+      <c r="F61">
+        <v>-0.0166041811157684</v>
+      </c>
+      <c r="G61">
+        <v>-0.05774673698236897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007729535340127357</v>
+        <v>-0.01516774290167589</v>
       </c>
       <c r="C63">
-        <v>-0.008585800187576733</v>
+        <v>-0.02818624339303398</v>
       </c>
       <c r="D63">
-        <v>-0.007782981039274912</v>
+        <v>0.007995905600649136</v>
       </c>
       <c r="E63">
-        <v>-0.009566087819114303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.003020783975390439</v>
+      </c>
+      <c r="F63">
+        <v>0.01770045179252842</v>
+      </c>
+      <c r="G63">
+        <v>-0.06675148021360734</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008717020535044365</v>
+        <v>-0.05044696171638421</v>
       </c>
       <c r="C64">
-        <v>-0.0298495665406668</v>
+        <v>-0.04398817080531297</v>
       </c>
       <c r="D64">
-        <v>-0.06276282408491424</v>
+        <v>0.005846688571343002</v>
       </c>
       <c r="E64">
-        <v>0.01790111527509534</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.004171610937238153</v>
+      </c>
+      <c r="F64">
+        <v>-0.002954525210079944</v>
+      </c>
+      <c r="G64">
+        <v>-0.05007363457086478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01704750939963537</v>
+        <v>-0.08234035478333251</v>
       </c>
       <c r="C65">
-        <v>-0.009385410493043193</v>
+        <v>-0.05527454016249639</v>
       </c>
       <c r="D65">
-        <v>-0.1067165597261619</v>
+        <v>0.01542010142302784</v>
       </c>
       <c r="E65">
-        <v>-0.007051868899914174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02273551482628189</v>
+      </c>
+      <c r="F65">
+        <v>-0.02927927241921932</v>
+      </c>
+      <c r="G65">
+        <v>-0.02020556364533935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004905994071933839</v>
+        <v>-0.05346573249246769</v>
       </c>
       <c r="C66">
-        <v>0.01285279299956031</v>
+        <v>-0.1110077660264129</v>
       </c>
       <c r="D66">
-        <v>-0.1131771279128967</v>
+        <v>0.01213956682956158</v>
       </c>
       <c r="E66">
-        <v>0.01587084756198834</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02947178109028541</v>
+      </c>
+      <c r="F66">
+        <v>-0.03675657191822606</v>
+      </c>
+      <c r="G66">
+        <v>-0.07002009049082743</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.002979929235293273</v>
+        <v>-0.05523093975841852</v>
       </c>
       <c r="C67">
-        <v>-0.05647250153485831</v>
+        <v>-0.03183917290825955</v>
       </c>
       <c r="D67">
-        <v>-0.03705794806501357</v>
+        <v>-0.005757734682971072</v>
       </c>
       <c r="E67">
-        <v>-0.006053000455476918</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003520764200115048</v>
+      </c>
+      <c r="F67">
+        <v>0.01501861117734065</v>
+      </c>
+      <c r="G67">
+        <v>-0.06072162005722877</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05722224703841176</v>
+        <v>-0.1389569181609645</v>
       </c>
       <c r="C68">
-        <v>-0.2321735308826865</v>
+        <v>0.2745731343762939</v>
       </c>
       <c r="D68">
-        <v>0.1528255759806257</v>
+        <v>0.003588878768685254</v>
       </c>
       <c r="E68">
-        <v>0.007948606489307876</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.006182761231864575</v>
+      </c>
+      <c r="F68">
+        <v>0.03224155258220768</v>
+      </c>
+      <c r="G68">
+        <v>-0.0245712298719481</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.000934440616906317</v>
+        <v>-0.08246830286102702</v>
       </c>
       <c r="C69">
-        <v>-0.04218868681008967</v>
+        <v>-0.06805212467336706</v>
       </c>
       <c r="D69">
-        <v>-0.06239917068743933</v>
+        <v>-0.009173378917883853</v>
       </c>
       <c r="E69">
-        <v>-0.007142663295738367</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02614281030989221</v>
+      </c>
+      <c r="F69">
+        <v>0.03815189750103569</v>
+      </c>
+      <c r="G69">
+        <v>-0.06368274077541561</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04278094235405155</v>
+        <v>-0.1287368255165328</v>
       </c>
       <c r="C71">
-        <v>-0.2056215111363682</v>
+        <v>0.2363401272140346</v>
       </c>
       <c r="D71">
-        <v>0.1382456630295306</v>
+        <v>-0.00509952805775232</v>
       </c>
       <c r="E71">
-        <v>0.0008531281603890807</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02457888955288261</v>
+      </c>
+      <c r="F71">
+        <v>0.0130490688631284</v>
+      </c>
+      <c r="G71">
+        <v>-0.04490224054589438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-6.217665265558039e-05</v>
+        <v>-0.08751095398375118</v>
       </c>
       <c r="C72">
-        <v>-0.04687642116380101</v>
+        <v>-0.07070242396681496</v>
       </c>
       <c r="D72">
-        <v>-0.1313465647170566</v>
+        <v>-0.007930629283055299</v>
       </c>
       <c r="E72">
-        <v>0.002341090208511036</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002767915374642425</v>
+      </c>
+      <c r="F72">
+        <v>-0.04279862266763438</v>
+      </c>
+      <c r="G72">
+        <v>-0.04932564723827738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05414943019865114</v>
+        <v>-0.3864462558837734</v>
       </c>
       <c r="C73">
-        <v>-0.1867732568812831</v>
+        <v>-0.1013997266371293</v>
       </c>
       <c r="D73">
-        <v>-0.1607250319619676</v>
+        <v>0.02168138786952475</v>
       </c>
       <c r="E73">
-        <v>0.06337537779381396</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06617939537767868</v>
+      </c>
+      <c r="F73">
+        <v>-0.5684306619438825</v>
+      </c>
+      <c r="G73">
+        <v>0.2020979977378994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003272060827856808</v>
+        <v>-0.1136216520518202</v>
       </c>
       <c r="C74">
-        <v>-0.07897457514405214</v>
+        <v>-0.110077632530558</v>
       </c>
       <c r="D74">
-        <v>-0.159362445051847</v>
+        <v>-0.01009030078207303</v>
       </c>
       <c r="E74">
-        <v>0.01544872814734544</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01595166675663035</v>
+      </c>
+      <c r="F74">
+        <v>0.07406582819654584</v>
+      </c>
+      <c r="G74">
+        <v>-0.05078075413382643</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01221903565021823</v>
+        <v>-0.2504064937214635</v>
       </c>
       <c r="C75">
-        <v>-0.1858973061429813</v>
+        <v>-0.1476870028295415</v>
       </c>
       <c r="D75">
-        <v>-0.2903759524047465</v>
+        <v>-0.02974181341640592</v>
       </c>
       <c r="E75">
-        <v>0.02846675038475199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05697146538855714</v>
+      </c>
+      <c r="F75">
+        <v>0.1802485479806236</v>
+      </c>
+      <c r="G75">
+        <v>0.06376747919913905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0002970286919135593</v>
+        <v>-0.1275762458870454</v>
       </c>
       <c r="C76">
-        <v>-0.1177975708155636</v>
+        <v>-0.1126868163586892</v>
       </c>
       <c r="D76">
-        <v>-0.2359178783173119</v>
+        <v>-0.02051063996426848</v>
       </c>
       <c r="E76">
-        <v>-0.0172151415148377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04711851176993694</v>
+      </c>
+      <c r="F76">
+        <v>0.1181198871293105</v>
+      </c>
+      <c r="G76">
+        <v>-0.02207008024197505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01282682614639343</v>
+        <v>-0.06781447116341979</v>
       </c>
       <c r="C77">
-        <v>-0.02032875807187012</v>
+        <v>-0.05648093014004023</v>
       </c>
       <c r="D77">
-        <v>-0.0443919319708975</v>
+        <v>0.01231285432849492</v>
       </c>
       <c r="E77">
-        <v>0.01636739319804331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05233675688304393</v>
+      </c>
+      <c r="F77">
+        <v>-0.01268401019620464</v>
+      </c>
+      <c r="G77">
+        <v>-0.06735370400143367</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004803024754298184</v>
+        <v>-0.04631168894759807</v>
       </c>
       <c r="C78">
-        <v>-0.01568492980139229</v>
+        <v>-0.04729659860809651</v>
       </c>
       <c r="D78">
-        <v>-0.0607947575233795</v>
+        <v>0.005084433425887607</v>
       </c>
       <c r="E78">
-        <v>0.01081742677677427</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02071048203206137</v>
+      </c>
+      <c r="F78">
+        <v>-0.03577020604549856</v>
+      </c>
+      <c r="G78">
+        <v>-0.06512430775035673</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01590168831885141</v>
+        <v>-0.05822738234033527</v>
       </c>
       <c r="C80">
-        <v>-0.09210128561567676</v>
+        <v>-0.06619937979284835</v>
       </c>
       <c r="D80">
-        <v>-0.2404883330257127</v>
+        <v>0.01045047744816071</v>
       </c>
       <c r="E80">
-        <v>-0.7964401895130196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0240595406133174</v>
+      </c>
+      <c r="F80">
+        <v>-0.006185168031393123</v>
+      </c>
+      <c r="G80">
+        <v>-0.6959491421904247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.00793979723955383</v>
+        <v>-0.1422199312629957</v>
       </c>
       <c r="C81">
-        <v>-0.1110615908409966</v>
+        <v>-0.09011383999045236</v>
       </c>
       <c r="D81">
-        <v>-0.1660015611821141</v>
+        <v>-0.01518661991830825</v>
       </c>
       <c r="E81">
-        <v>-0.003549385426310598</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03433941174127399</v>
+      </c>
+      <c r="F81">
+        <v>0.1271599883556027</v>
+      </c>
+      <c r="G81">
+        <v>-0.01404862124603469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1205778100786966</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05968844817896966</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.006425130780583287</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08231802296653928</v>
+      </c>
+      <c r="F82">
+        <v>0.020999555274815</v>
+      </c>
+      <c r="G82">
+        <v>-0.03352570631260126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007433232321804271</v>
+        <v>-0.03339286527211485</v>
       </c>
       <c r="C83">
-        <v>-0.02196740510908935</v>
+        <v>-0.02243041779280153</v>
       </c>
       <c r="D83">
-        <v>-0.01992336741316808</v>
+        <v>0.005963852952542993</v>
       </c>
       <c r="E83">
-        <v>0.001141705421214086</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0314960043778592</v>
+      </c>
+      <c r="F83">
+        <v>-0.03543087410877917</v>
+      </c>
+      <c r="G83">
+        <v>-0.05179525121202369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01803741623042404</v>
+        <v>-0.2172953698813268</v>
       </c>
       <c r="C85">
-        <v>-0.1432507091033355</v>
+        <v>-0.1414340371821839</v>
       </c>
       <c r="D85">
-        <v>-0.2644060095163353</v>
+        <v>-0.01730169921502982</v>
       </c>
       <c r="E85">
-        <v>0.0225647737973918</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09635100493800319</v>
+      </c>
+      <c r="F85">
+        <v>0.1415358803081298</v>
+      </c>
+      <c r="G85">
+        <v>0.1044356222498534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00869029109951488</v>
+        <v>-0.01846889983222577</v>
       </c>
       <c r="C86">
-        <v>-0.03248413491859121</v>
+        <v>-0.02237748365656027</v>
       </c>
       <c r="D86">
-        <v>-0.009540555292168023</v>
+        <v>0.01083232296381537</v>
       </c>
       <c r="E86">
-        <v>0.03839616863312299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04290229806075652</v>
+      </c>
+      <c r="F86">
+        <v>-0.04050670317368553</v>
+      </c>
+      <c r="G86">
+        <v>-0.1309193672242916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00782909218102081</v>
+        <v>-0.02394354594409135</v>
       </c>
       <c r="C87">
-        <v>-0.01264102839989843</v>
+        <v>-0.02552816776410793</v>
       </c>
       <c r="D87">
-        <v>-0.04251585337231504</v>
+        <v>0.01117159485691531</v>
       </c>
       <c r="E87">
-        <v>0.01221639225440013</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08530419482690413</v>
+      </c>
+      <c r="F87">
+        <v>-0.02082635235523411</v>
+      </c>
+      <c r="G87">
+        <v>-0.09266171576625583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02805211670071511</v>
+        <v>-0.09204545941834329</v>
       </c>
       <c r="C88">
-        <v>-0.03526801783003233</v>
+        <v>-0.06497876083840304</v>
       </c>
       <c r="D88">
-        <v>-0.0334087074887859</v>
+        <v>0.02293397460516816</v>
       </c>
       <c r="E88">
-        <v>-0.001477840675881953</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.0113072571842497</v>
+      </c>
+      <c r="F88">
+        <v>0.02241939619519979</v>
+      </c>
+      <c r="G88">
+        <v>-0.06197360692236985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07876508642216451</v>
+        <v>-0.2146069530297104</v>
       </c>
       <c r="C89">
-        <v>-0.3687579373089521</v>
+        <v>0.3758538247558141</v>
       </c>
       <c r="D89">
-        <v>0.2446468760342914</v>
+        <v>-0.00396748624885246</v>
       </c>
       <c r="E89">
-        <v>-0.02989574499578119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02302513193542421</v>
+      </c>
+      <c r="F89">
+        <v>0.02447024994165511</v>
+      </c>
+      <c r="G89">
+        <v>-0.04898111571762363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06079310123529709</v>
+        <v>-0.1934041337125157</v>
       </c>
       <c r="C90">
-        <v>-0.2888013372747746</v>
+        <v>0.3327080273801646</v>
       </c>
       <c r="D90">
-        <v>0.2082900606560399</v>
+        <v>-0.008528778174427709</v>
       </c>
       <c r="E90">
-        <v>0.005475380984079166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01905196974476319</v>
+      </c>
+      <c r="F90">
+        <v>0.05261675242970141</v>
+      </c>
+      <c r="G90">
+        <v>-0.01536507025280856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.00803832444580139</v>
+        <v>-0.1965693738221482</v>
       </c>
       <c r="C91">
-        <v>-0.1591443523716411</v>
+        <v>-0.1368627472644177</v>
       </c>
       <c r="D91">
-        <v>-0.2409268372898943</v>
+        <v>-0.02350133803033818</v>
       </c>
       <c r="E91">
-        <v>-0.0004670682736116684</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07175312850596215</v>
+      </c>
+      <c r="F91">
+        <v>0.1561550257621085</v>
+      </c>
+      <c r="G91">
+        <v>-0.002775272772999894</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02751554027899676</v>
+        <v>-0.1938386781779587</v>
       </c>
       <c r="C92">
-        <v>-0.3062286977025117</v>
+        <v>0.2649001554822129</v>
       </c>
       <c r="D92">
-        <v>0.09611324905045261</v>
+        <v>-0.04353730791066986</v>
       </c>
       <c r="E92">
-        <v>0.006702778260674298</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01163796343063126</v>
+      </c>
+      <c r="F92">
+        <v>0.06923001988550118</v>
+      </c>
+      <c r="G92">
+        <v>-0.1127810197528087</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05908839810290721</v>
+        <v>-0.2183461991180978</v>
       </c>
       <c r="C93">
-        <v>-0.3158775210044483</v>
+        <v>0.3291280302448977</v>
       </c>
       <c r="D93">
-        <v>0.1986376687152367</v>
+        <v>-0.01471571849581265</v>
       </c>
       <c r="E93">
-        <v>0.03017405201235367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005322430809945339</v>
+      </c>
+      <c r="F93">
+        <v>0.03556532879817899</v>
+      </c>
+      <c r="G93">
+        <v>-0.01280486129983738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03218482964268334</v>
+        <v>-0.3182967216969543</v>
       </c>
       <c r="C94">
-        <v>-0.189741949837555</v>
+        <v>-0.1642871107802062</v>
       </c>
       <c r="D94">
-        <v>-0.2417469547739295</v>
+        <v>-0.01718581450674131</v>
       </c>
       <c r="E94">
-        <v>0.02097124575373346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1639588799868657</v>
+      </c>
+      <c r="F94">
+        <v>0.4770465394281144</v>
+      </c>
+      <c r="G94">
+        <v>0.2604461066646589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004232734489213634</v>
+        <v>-0.09929494104126908</v>
       </c>
       <c r="C95">
-        <v>-0.03856926709602398</v>
+        <v>-0.08156094271476796</v>
       </c>
       <c r="D95">
-        <v>-0.08131190423382365</v>
+        <v>-0.008497618088601347</v>
       </c>
       <c r="E95">
-        <v>0.1316442259171691</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06161500508238362</v>
+      </c>
+      <c r="F95">
+        <v>-0.1896973665259146</v>
+      </c>
+      <c r="G95">
+        <v>0.0644950466293491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01553178438766184</v>
+        <v>-0.1999135129389771</v>
       </c>
       <c r="C98">
-        <v>-0.1684834235452992</v>
+        <v>-0.03991001489772278</v>
       </c>
       <c r="D98">
-        <v>-0.1146438599761223</v>
+        <v>-0.01254550405526555</v>
       </c>
       <c r="E98">
-        <v>0.06082519432782179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06607478514236349</v>
+      </c>
+      <c r="F98">
+        <v>-0.2451666954705617</v>
+      </c>
+      <c r="G98">
+        <v>0.02605035646228841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008003394540334144</v>
+        <v>-0.01225604329532998</v>
       </c>
       <c r="C101">
-        <v>-0.01751735093449201</v>
+        <v>-0.02031299314621689</v>
       </c>
       <c r="D101">
-        <v>-0.01059488799593593</v>
+        <v>0.007323622479201626</v>
       </c>
       <c r="E101">
-        <v>-0.005253607719724796</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.006019498584905859</v>
+      </c>
+      <c r="F101">
+        <v>0.01748833301457032</v>
+      </c>
+      <c r="G101">
+        <v>-0.06741624669869714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01859591801626025</v>
+        <v>-0.120871113299504</v>
       </c>
       <c r="C102">
-        <v>-0.08382175104543399</v>
+        <v>-0.08365413742951855</v>
       </c>
       <c r="D102">
-        <v>-0.1315217878214454</v>
+        <v>0.001360365701677794</v>
       </c>
       <c r="E102">
-        <v>0.007338878861358122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03241911913330402</v>
+      </c>
+      <c r="F102">
+        <v>0.04171438764280674</v>
+      </c>
+      <c r="G102">
+        <v>0.006367583142261523</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.00207135059943004</v>
+        <v>-0.003531210676794431</v>
       </c>
       <c r="C103">
-        <v>-0.01245331206636839</v>
+        <v>-0.002941514324995978</v>
       </c>
       <c r="D103">
-        <v>-0.02317777763906891</v>
+        <v>0.0001078338775666858</v>
       </c>
       <c r="E103">
-        <v>-0.01347947223606331</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001732546671254387</v>
+      </c>
+      <c r="F103">
+        <v>0.005667215683161425</v>
+      </c>
+      <c r="G103">
+        <v>-0.01298017181369034</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.976124022878233</v>
+        <v>-0.02329535276943697</v>
       </c>
       <c r="C104">
-        <v>0.1705026749557776</v>
+        <v>0.03620089536645075</v>
       </c>
       <c r="D104">
-        <v>0.006405880897333438</v>
+        <v>0.9874116027232673</v>
       </c>
       <c r="E104">
-        <v>-0.03960451020649349</v>
+        <v>-0.04575399074599155</v>
+      </c>
+      <c r="F104">
+        <v>0.04100570950681635</v>
+      </c>
+      <c r="G104">
+        <v>0.0188527655941701</v>
       </c>
     </row>
   </sheetData>
